--- a/docs/PTA2_DDC_80/PTA2_DDC_80_03.09.2024_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731777969.8171997</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731777972.7016907</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731777969.8171997.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731777972.7016907.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>245.27</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>245.81</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.539999999999992</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731777973.9623616</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731777975.7476475</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731777973.9623616.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731777975.7476475.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>248.59</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>246.9</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.689999999999998</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731777976.4805255</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731777976.4805255.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731777976.4805255.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>246.29</v>
       </c>
-      <c r="J5" t="n">
-        <v>246.29</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>246.15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.1399999999999864</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731777977.9562733</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731777980.4807196</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731777977.9562733.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731777980.4807196.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>245.27</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>245.81</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.539999999999992</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731777981.7189353</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731777983.5462136</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731777981.7189353.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731777983.5462136.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>248.59</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>246.9</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.689999999999998</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731777984.2413285</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731777985.7650118</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731777984.2413285.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731777985.7650118.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>246.29</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>244.27</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-2.019999999999982</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.8200000000000001</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731777986.2072814</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731777989.6815264</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731777986.2072814.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731777989.6815264.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>245.86</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>246.71</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.8499999999999943</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731777990.9149177</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731777993.0219932</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731777990.9149177.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731777993.0219932.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>249.02</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>248.2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.8200000000000216</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -947,95 +1011,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731777993.942293</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731777993.942293.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731777993.942293.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>247.11</v>
       </c>
-      <c r="J11" t="n">
-        <v>247.11</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>247.04</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.0700000000000216</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731777995.6610408</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731777998.8589225</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731777995.6610408.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731777998.8589225.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>124.87</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>124.44</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4300000000000068</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1043,95 +1119,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731778001.4353552</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731778001.4353552.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731778001.4353552.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>123.95</v>
       </c>
-      <c r="J13" t="n">
-        <v>123.95</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>123.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.5499999999999972</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731778003.6117175</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731778007.1728642</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778003.6117175.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778007.1728642.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6143</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6184.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-41.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -1139,51 +1227,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731778009.1290047</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731778009.258661</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778009.1290047.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778009.258661.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6230</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6207</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>23</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1191,95 +1285,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731778010.4831054</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731778010.4831054.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731778010.4831054.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6175.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>6175.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>6179</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731778013.0261445</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731778017.7722201</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778013.0261445.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778017.7722201.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>463.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>468.35</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-4.75</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-1.02</v>
       </c>
     </row>
@@ -1287,51 +1393,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731778018.2849388</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731778018.7667062</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778018.2849388.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778018.7667062.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>466</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>468.25</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2.25</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1339,51 +1451,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731778021.178604</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731778025.5088017</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778021.178604.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778025.5088017.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>194.39</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>194.45</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1391,51 +1509,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731778025.7067482</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731778026.064935</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778025.7067482.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778026.064935.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>193.41</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>194.45</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.039999999999992</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1443,95 +1567,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731778026.779787</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731778026.779787.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731778026.779787.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>192.73</v>
       </c>
-      <c r="J21" t="n">
-        <v>192.73</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>192.31</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731778029.2140813</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731778030.9985485</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778029.2140813.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778030.9985485.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>967.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>959.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>7.600000000000023</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -1539,51 +1675,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731778031.9623995</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731778032.513492</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778031.9623995.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778032.513492.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>970</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>963.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>6.799999999999955</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -1591,51 +1733,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731778033.3236585</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731778035.2088847</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778033.3236585.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778035.2088847.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>971</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>968.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1643,95 +1791,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731778036.302116</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731778036.302116.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731778036.302116.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>962.4</v>
       </c>
-      <c r="J25" t="n">
-        <v>962.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>963</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731778037.8214078</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731778039.494875</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778037.8214078.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778039.494875.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>11.995</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>11.975</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1739,95 +1899,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731778041.4979177</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731778041.4979177.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731778041.4979177.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>12.01</v>
       </c>
-      <c r="J27" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>12.071</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.06099999999999994</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731778046.2216861</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731778052.5888658</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778046.2216861.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778052.5888658.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>104.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>106.44</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-2.039999999999992</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-1.95</v>
       </c>
     </row>
@@ -1835,95 +2007,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731778052.8270378</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731778052.8270378.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731778052.8270378.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>105.68</v>
       </c>
-      <c r="J29" t="n">
-        <v>105.68</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>105.66</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731778055.089377</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731778058.5938883</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778055.089377.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778058.5938883.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>128.84</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>129.92</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-1.079999999999984</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.84</v>
       </c>
     </row>
@@ -1931,95 +2115,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731778060.1210973</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731778060.1210973.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731778060.1210973.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>129.6</v>
       </c>
-      <c r="J31" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>127.76</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-1.839999999999989</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-1.42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731778062.9840322</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731778066.3173518</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778062.9840322.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778066.3173518.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>41.34</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>41.445</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.1049999999999969</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2027,95 +2223,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731778068.3250701</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731778068.3250701.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731778068.3250701.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>41.38</v>
       </c>
-      <c r="J33" t="n">
-        <v>41.38</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>40.76</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.6200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731778072.078956</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731778075.6628356</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778072.078956.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778075.6628356.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1180</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1195.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-15.79999999999995</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-1.34</v>
       </c>
     </row>
@@ -2123,95 +2331,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731778077.3902614</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731778077.3902614.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731778077.3902614.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1190.6</v>
       </c>
-      <c r="J35" t="n">
-        <v>1190.6</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1165.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-25.19999999999982</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-2.12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731778079.3677044</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731778085.1869066</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778079.3677044.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778085.1869066.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>47.43</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>48.36</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.9299999999999997</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-1.96</v>
       </c>
     </row>
@@ -2219,95 +2439,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731778086.1143756</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731778086.1143756.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731778086.1143756.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>47.92</v>
       </c>
-      <c r="J37" t="n">
-        <v>47.92</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>47.94</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731778087.6715024</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731778090.3527658</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778087.6715024.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778090.3527658.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>87.58</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>87.34</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2399999999999949</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2315,51 +2547,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731778091.4566028</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731778093.7117014</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778091.4566028.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778093.7117014.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>88.26000000000001</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>87.81</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.4500000000000028</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2367,95 +2605,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731778094.6583092</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731778094.6583092.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731778094.6583092.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="J40" t="n">
-        <v>87.15000000000001</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>87.29000000000001</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731778096.1397896</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731778098.6874344</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778096.1397896.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778098.6874344.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>47.55</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>47.39</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2463,51 +2713,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731778099.9718468</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731778100.9036157</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778099.9718468.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778100.9036157.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>48.09</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>47.66</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.4300000000000068</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -2515,95 +2771,107 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731778101.1796727</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731778101.1796727.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731778101.1796727.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>47.26</v>
       </c>
-      <c r="J43" t="n">
-        <v>47.26</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>46.8</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.4600000000000009</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731778104.247399</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731778105.8845835</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778104.247399.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778105.8845835.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>139.3</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>139.2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2611,51 +2879,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731778108.0156796</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731778109.5152886</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778108.0156796.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778109.5152886.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>139.28</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>139</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2663,51 +2937,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731778109.7683432</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731778110.9956458</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731778109.7683432.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731778110.9956458.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>0.2711</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.2768</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.005699999999999983</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -2715,51 +2995,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731778118.6678538</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731778119.6891222</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778118.6678538.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778119.6891222.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>15.393</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>15.185</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2080000000000002</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>1.35</v>
       </c>
     </row>
@@ -2767,51 +3053,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731778122.883267</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731778123.1480231</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778122.883267.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778123.1480231.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>15.447</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>15.311</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1359999999999992</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -2819,95 +3111,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731778124.0320406</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731778124.0320406.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731778124.0320406.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>15.204</v>
       </c>
-      <c r="J49" t="n">
-        <v>15.204</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>15.113</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.09100000000000108</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731778126.141922</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731778128.7318566</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778126.141922.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778128.7318566.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>649</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>649.9</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2915,51 +3219,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731778131.523866</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731778131.7901256</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778131.523866.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778131.7901256.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>648.4</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>651.3</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>2.899999999999977</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2967,95 +3277,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731778132.3538952</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731778132.3538952.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731778132.3538952.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>646.75</v>
       </c>
-      <c r="J52" t="n">
-        <v>646.75</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>646.65</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731778133.5728238</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731778135.1295898</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778133.5728238.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778135.1295898.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>114.19</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>113.59</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -3063,51 +3385,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731778136.3696432</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731778137.3554554</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778136.3696432.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778137.3554554.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>113.08</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>114.4</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1.320000000000007</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>1.17</v>
       </c>
     </row>
@@ -3115,44 +3443,50 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731778140.0164442</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731778140.0164442.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731778140.0164442.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>113.22</v>
       </c>
-      <c r="J55" t="n">
-        <v>113.22</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>112.6</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.6200000000000045</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3213,19 +3547,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8999999999999488</v>
+        <v>-0.9699999999999704</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1499999999999915</v>
+        <v>-0.1616666666666617</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3800000000000001</v>
+        <v>-0.4100000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3235,19 +3569,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.60000000000002</v>
+        <v>17.20000000000005</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4.150000000000006</v>
+        <v>4.300000000000011</v>
       </c>
       <c r="E3" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="F3" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -3257,19 +3591,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3439999999999994</v>
+        <v>0.2529999999999983</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1146666666666665</v>
+        <v>0.08433333333333277</v>
       </c>
       <c r="E4" t="n">
-        <v>2.23</v>
+        <v>1.63</v>
       </c>
       <c r="F4" t="n">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -3279,19 +3613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9799999999999898</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3266666666666633</v>
+        <v>0.1866666666666674</v>
       </c>
       <c r="E5" t="n">
-        <v>0.51</v>
+        <v>0.29</v>
       </c>
       <c r="F5" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -3301,19 +3635,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6899999999999977</v>
+        <v>0.8299999999999983</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2299999999999992</v>
+        <v>0.2766666666666661</v>
       </c>
       <c r="E6" t="n">
-        <v>0.78</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
@@ -3323,16 +3657,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1.899999999999977</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6333333333333258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.2899999999999999</v>
       </c>
       <c r="F7" t="n">
         <v>0.1</v>
@@ -3345,19 +3679,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5900000000000034</v>
+        <v>0.1300000000000026</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1966666666666678</v>
+        <v>0.04333333333333419</v>
       </c>
       <c r="E8" t="n">
-        <v>1.23</v>
+        <v>0.26</v>
       </c>
       <c r="F8" t="n">
-        <v>0.41</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
@@ -3367,19 +3701,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.150000000000006</v>
+        <v>1.010000000000019</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3833333333333352</v>
+        <v>0.3366666666666731</v>
       </c>
       <c r="E9" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="10">
@@ -3389,19 +3723,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.920000000000002</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.4333333333333324</v>
       </c>
       <c r="E10" t="n">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="F10" t="n">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11">
@@ -3411,19 +3745,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-18.5</v>
+        <v>-15</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.166666666666667</v>
+        <v>-5</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3099999999999999</v>
+        <v>-0.2499999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="12">
@@ -3433,19 +3767,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.9299999999999997</v>
+        <v>-0.9100000000000037</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4649999999999999</v>
+        <v>-0.4550000000000018</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.96</v>
+        <v>-1.92</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.98</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="13">
@@ -3455,19 +3789,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.079999999999984</v>
+        <v>-2.919999999999973</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.539999999999992</v>
+        <v>-1.459999999999987</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.84</v>
+        <v>-2.26</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.42</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="14">
@@ -3477,19 +3811,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1049999999999969</v>
+        <v>-0.7250000000000014</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.05249999999999844</v>
+        <v>-0.3625000000000007</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.12</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="15">
@@ -3521,16 +3855,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.039999999999992</v>
+        <v>-2.060000000000002</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.019999999999996</v>
+        <v>-1.030000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.95</v>
+        <v>-1.97</v>
       </c>
       <c r="F16" t="n">
         <v>-0.98</v>
@@ -3543,19 +3877,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4300000000000068</v>
+        <v>-0.1199999999999903</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2150000000000034</v>
+        <v>-0.05999999999999517</v>
       </c>
       <c r="E17" t="n">
-        <v>0.34</v>
+        <v>-0.1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.17</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="18">
@@ -3565,19 +3899,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01999999999999957</v>
+        <v>-0.04100000000000037</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.009999999999999787</v>
+        <v>-0.02050000000000018</v>
       </c>
       <c r="E18" t="n">
-        <v>0.17</v>
+        <v>-0.34</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="19">
@@ -3609,19 +3943,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-15.79999999999995</v>
+        <v>-40.99999999999977</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.899999999999977</v>
+        <v>-20.49999999999989</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.34</v>
+        <v>-3.46</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.67</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="21">
